--- a/matlab/initial_conditions_cattai/Initial Conditions Review.xlsx
+++ b/matlab/initial_conditions_cattai/Initial Conditions Review.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\Hawkesbury\matlab\initial_conditions_cattai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7C82B8-AF8D-40F9-8D59-FAF2AF57C8F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFE5E5-6FE4-4439-A5FD-DD12E56714C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{6614AD34-D736-4872-9DF0-EA07E02AA282}"/>
   </bookViews>
@@ -1279,18 +1279,18 @@
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="58" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="58" width="3.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="152.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="159" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>62</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>63</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>64</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>65</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>66</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>67</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>69</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>12</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>19</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>40</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>52</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>56</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>41</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>43</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>54</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>0.84499999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>75</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>8.4500000000000006E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>47</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>208.33333333333334</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>76</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>208.33333333333334</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
         <v>48</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
         <v>50</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>11.700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
         <v>49</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>0.28525</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>77</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0.28525</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>78</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
         <v>79</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
         <v>80</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
         <v>81</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>2.1250001700000003</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
         <v>82</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>9</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
         <v>11</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
         <v>10</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -3186,7 +3186,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -3194,7 +3194,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="8"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -3202,7 +3202,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="8"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -3210,7 +3210,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>69</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>83</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>84</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>85</v>
       </c>
@@ -3325,7 +3325,7 @@
       <selection activeCell="AI59" sqref="AI59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3491,18 +3491,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3524,6 +3524,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05890BE9-631A-46D4-9325-4C15E95FAB0B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6AD35B11-4BA3-4A57-BAE4-A008822F3C55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -3537,12 +3545,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05890BE9-631A-46D4-9325-4C15E95FAB0B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/matlab/initial_conditions_cattai/Initial Conditions Review.xlsx
+++ b/matlab/initial_conditions_cattai/Initial Conditions Review.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\Github\Hawkesbury\matlab\initial_conditions_cattai\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Hawkesbury\matlab\initial_conditions_cattai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36AFE5E5-6FE4-4439-A5FD-DD12E56714C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5993280A-D134-48DC-BBB2-8466DC560F5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{6614AD34-D736-4872-9DF0-EA07E02AA282}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{6614AD34-D736-4872-9DF0-EA07E02AA282}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Review" sheetId="1" r:id="rId1"/>
-    <sheet name="Data Plots" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="89">
   <si>
     <t>Site</t>
   </si>
@@ -292,6 +291,15 @@
   </si>
   <si>
     <t>TCHLA</t>
+  </si>
+  <si>
+    <t>NC3</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Cell Z +1.5</t>
   </si>
 </sst>
 </file>
@@ -379,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -408,11 +416,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -473,13 +492,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>111125</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>73894</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>67544</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -508,63 +527,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3460750"/>
-          <a:ext cx="10058400" cy="7112869"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5106F4BC-F3FE-499E-BAF1-F7E135F124E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10058400" cy="5367189"/>
+          <a:off x="0" y="3670300"/>
+          <a:ext cx="10531475" cy="6887444"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -575,23 +539,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>97248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75CB9217-84CD-48B7-8A4B-33ABF01F3754}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B813EA93-AECF-4D13-A13D-940D0C2C4F77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -613,358 +577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10363200" y="0"/>
-          <a:ext cx="10058400" cy="5367189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26A7BAC3-1E55-4F49-A0B3-FFEA76C6D946}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20726400" y="0"/>
-          <a:ext cx="10058400" cy="5367189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C36879-0535-4AA0-B4AB-F2DB33E2900C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="5524500"/>
-          <a:ext cx="10058400" cy="5367189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C89B13A-FB0C-4EAA-AE0D-7CC40BA6AF37}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363200" y="5524500"/>
-          <a:ext cx="10058400" cy="5367189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35D1A207-C948-428E-BA8C-BE7A66AC2353}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20726400" y="5524500"/>
-          <a:ext cx="10058400" cy="5367189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1576121F-1B2F-445C-80FC-60F50DA839A1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="11049000"/>
-          <a:ext cx="10058400" cy="5367189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2676C8-E9DE-4D19-9E87-AA747CE72281}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10363200" y="11049000"/>
-          <a:ext cx="10058400" cy="5367189"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>33189</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3F81EC0-3854-4A2B-AF3E-EF1D9235D574}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20726400" y="11049000"/>
-          <a:ext cx="10058400" cy="5367189"/>
+          <a:off x="10706100" y="3676649"/>
+          <a:ext cx="9772650" cy="6910799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,10 +887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E0BA3A0-BA21-4B06-9C39-BEB3AA64C250}">
-  <dimension ref="A1:BF80"/>
+  <dimension ref="A1:BF77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2698,6 +2312,182 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3">
+        <v>307957.96000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6280347</v>
+      </c>
+      <c r="E9" s="3">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4">
+        <v>39309</v>
+      </c>
+      <c r="G9" s="4">
+        <v>40402</v>
+      </c>
+      <c r="H9" s="3">
+        <v>273</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AT9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BB9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BC9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BE9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF9" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>69</v>
@@ -2720,207 +2510,207 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="C50" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="D50" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="E50" s="9">
-        <v>0.2</v>
-      </c>
-      <c r="F50" s="9">
-        <v>0.2</v>
+        <v>87</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B51" s="9">
-        <v>14.5</v>
+        <v>0.2</v>
       </c>
       <c r="C51" s="9">
-        <v>14.5</v>
+        <v>0.2</v>
       </c>
       <c r="D51" s="9">
-        <v>14.5</v>
+        <v>0.2</v>
       </c>
       <c r="E51" s="9">
-        <v>14.5</v>
+        <v>0.2</v>
       </c>
       <c r="F51" s="9">
-        <v>14.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B52" s="9">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="C52" s="9">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="D52" s="9">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="E52" s="9">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
       <c r="F52" s="9">
-        <v>10.4</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B53" s="9">
-        <v>251</v>
+        <v>10.4</v>
       </c>
       <c r="C53" s="9">
-        <v>268</v>
+        <v>10.4</v>
       </c>
       <c r="D53" s="9">
-        <v>295</v>
+        <v>10.4</v>
       </c>
       <c r="E53" s="9">
-        <v>251</v>
+        <v>10.4</v>
       </c>
       <c r="F53" s="9">
-        <v>285</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B54" s="9">
-        <v>254.80430000000001</v>
+        <v>251</v>
       </c>
       <c r="C54" s="9">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="D54" s="9">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="E54" s="9">
-        <v>254.80430000000001</v>
+        <v>251</v>
       </c>
       <c r="F54" s="9">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B55" s="9">
-        <v>2.5</v>
+        <v>254.80430000000001</v>
       </c>
       <c r="C55" s="9">
-        <v>2.2000000000000002</v>
+        <v>288</v>
       </c>
       <c r="D55" s="9">
-        <v>11</v>
+        <v>288</v>
       </c>
       <c r="E55" s="9">
-        <v>3.5</v>
+        <v>254.80430000000001</v>
       </c>
       <c r="F55" s="9">
-        <v>4.5999999999999996</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B56" s="9">
-        <v>150</v>
+        <v>2.5</v>
       </c>
       <c r="C56" s="9">
-        <v>179</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D56" s="9">
-        <v>371</v>
+        <v>11</v>
       </c>
       <c r="E56" s="9">
-        <v>105</v>
+        <v>3.5</v>
       </c>
       <c r="F56" s="9">
-        <v>172</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B57" s="9">
-        <v>0.7</v>
+        <v>150</v>
       </c>
       <c r="C57" s="9">
-        <v>1.4</v>
+        <v>179</v>
       </c>
       <c r="D57" s="9">
-        <v>0.51</v>
+        <v>371</v>
       </c>
       <c r="E57" s="9">
-        <v>0.42299999999999999</v>
+        <v>105</v>
       </c>
       <c r="F57" s="9">
-        <v>0.84499999999999997</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B58" s="9">
-        <v>6.9999999999999993E-2</v>
+        <v>0.7</v>
       </c>
       <c r="C58" s="9">
-        <v>0.13999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="D58" s="9">
-        <v>5.1000000000000004E-2</v>
+        <v>0.51</v>
       </c>
       <c r="E58" s="9">
-        <v>4.2300000000000004E-2</v>
+        <v>0.42299999999999999</v>
       </c>
       <c r="F58" s="9">
-        <v>8.4500000000000006E-2</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B59" s="9">
-        <v>208.33333333333334</v>
+        <v>6.9999999999999993E-2</v>
       </c>
       <c r="C59" s="9">
-        <v>208.33333333333334</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="D59" s="9">
-        <v>208.33333333333334</v>
+        <v>5.1000000000000004E-2</v>
       </c>
       <c r="E59" s="9">
-        <v>208.33333333333334</v>
+        <v>4.2300000000000004E-2</v>
       </c>
       <c r="F59" s="9">
-        <v>208.33333333333334</v>
+        <v>8.4500000000000006E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="B60" s="9">
         <v>208.33333333333334</v>
@@ -2940,27 +2730,27 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="B61" s="9">
-        <v>20.25</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="C61" s="9">
-        <v>19.900000000000006</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="D61" s="9">
-        <v>16</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="E61" s="9">
-        <v>36.75</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="F61" s="9">
-        <v>11.700000000000003</v>
+        <v>208.33333333333334</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B62" s="9">
         <v>20.25</v>
@@ -2980,27 +2770,27 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B63" s="9">
-        <v>0.54800000000000004</v>
+        <v>20.25</v>
       </c>
       <c r="C63" s="9">
-        <v>0.11500000000000006</v>
+        <v>19.900000000000006</v>
       </c>
       <c r="D63" s="9">
-        <v>0.28949999999999992</v>
+        <v>16</v>
       </c>
       <c r="E63" s="9">
-        <v>0.56735000000000002</v>
+        <v>36.75</v>
       </c>
       <c r="F63" s="9">
-        <v>0.28525</v>
+        <v>11.700000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="B64" s="9">
         <v>0.54800000000000004</v>
@@ -3020,27 +2810,27 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="9">
-        <v>4.718750377500001</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="C65" s="9">
-        <v>3.6250002900000005</v>
+        <v>0.11500000000000006</v>
       </c>
       <c r="D65" s="9">
-        <v>2.0833335000000002</v>
+        <v>0.28949999999999992</v>
       </c>
       <c r="E65" s="9">
-        <v>13.471146911025</v>
+        <v>0.56735000000000002</v>
       </c>
       <c r="F65" s="9">
-        <v>2.1250001700000003</v>
+        <v>0.28525</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="9">
         <v>4.718750377500001</v>
@@ -3060,7 +2850,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" s="9">
         <v>4.718750377500001</v>
@@ -3080,7 +2870,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68" s="9">
         <v>4.718750377500001</v>
@@ -3100,27 +2890,27 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B69" s="9">
-        <v>0</v>
+        <v>4.718750377500001</v>
       </c>
       <c r="C69" s="9">
-        <v>0</v>
+        <v>3.6250002900000005</v>
       </c>
       <c r="D69" s="9">
-        <v>0</v>
+        <v>2.0833335000000002</v>
       </c>
       <c r="E69" s="9">
-        <v>0</v>
+        <v>13.471146911025</v>
       </c>
       <c r="F69" s="9">
-        <v>0</v>
+        <v>2.1250001700000003</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="B70" s="9">
         <v>0</v>
@@ -3140,51 +2930,63 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B71" s="9">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="C71" s="9">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="D71" s="9">
-        <v>573</v>
+        <v>0</v>
       </c>
       <c r="E71" s="9">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="F71" s="9">
-        <v>637</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="9">
+        <v>585</v>
+      </c>
+      <c r="C72" s="9">
+        <v>585</v>
+      </c>
+      <c r="D72" s="9">
+        <v>573</v>
+      </c>
+      <c r="E72" s="9">
+        <v>270</v>
+      </c>
+      <c r="F72" s="9">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="9">
+      <c r="B73" s="9">
         <v>930</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C73" s="9">
         <v>930</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D73" s="9">
         <v>490</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E73" s="9">
         <v>560</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F73" s="9">
         <v>1024</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="8"/>
@@ -3195,118 +2997,87 @@
       <c r="F74" s="8"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="A75" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75" s="10">
+        <v>193</v>
+      </c>
+      <c r="C75" s="10">
+        <v>221</v>
+      </c>
+      <c r="D75" s="10">
+        <v>414</v>
+      </c>
+      <c r="E75" s="10">
+        <v>182</v>
+      </c>
+      <c r="F75" s="10">
+        <v>200</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="A76" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="10">
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="C76" s="10">
+        <v>1.77</v>
+      </c>
+      <c r="D76" s="10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E76" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="F76" s="10">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="9">
-        <v>193</v>
-      </c>
-      <c r="C78" s="9">
-        <v>221</v>
-      </c>
-      <c r="D78" s="9">
-        <v>414</v>
-      </c>
-      <c r="E78" s="9">
-        <v>182</v>
-      </c>
-      <c r="F78" s="9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="9">
-        <v>1.8660000000000001</v>
-      </c>
-      <c r="C79" s="9">
-        <v>1.77</v>
-      </c>
-      <c r="D79" s="9">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="E79" s="9">
-        <v>1.6</v>
-      </c>
-      <c r="F79" s="9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B80" s="9">
+      <c r="B77" s="10">
         <v>4.53</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C77" s="10">
         <v>3.48</v>
       </c>
-      <c r="D80" s="9">
+      <c r="D77" s="10">
         <v>2</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E77" s="10">
         <v>12.9323</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F77" s="10">
         <v>2.04</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:BF2">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:BF4">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:BF4">
+  <conditionalFormatting sqref="I5:BF7">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BF7">
+  <conditionalFormatting sqref="I8:BF8">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"x"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BF8">
+  <conditionalFormatting sqref="I9:BF9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"x"</formula>
     </cfRule>
@@ -3314,21 +3085,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF73C22-0035-4805-A2A8-B63EDCA895D6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AI59" sqref="AI59"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
